--- a/data/processed-spanish-db.xlsx
+++ b/data/processed-spanish-db.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,12 +408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -799,13 +873,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>572</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>572</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
@@ -823,10 +897,10 @@
           <t>MEAT PIE</t>
         </is>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>88</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -839,22 +913,22 @@
           <t>,11,</t>
         </is>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>80</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>45</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>7</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>31</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>76</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>56</v>
       </c>
       <c r="Q2" t="inlineStr">
@@ -862,22 +936,22 @@
           <t>81.9</t>
         </is>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>76</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>17.4</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.8</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="inlineStr">
@@ -885,25 +959,25 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>77</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>320</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>23</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>16</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>54</v>
       </c>
       <c r="AF2" t="inlineStr">
@@ -911,7 +985,7 @@
           <t>0.3</t>
         </is>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
@@ -919,133 +993,133 @@
           <t>0.4</t>
         </is>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>30</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
         <v>1</v>
       </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
         <v>4</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
         <v>3</v>
       </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
         <v>8</v>
       </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
         <v>4</v>
       </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
         <v>0</v>
       </c>
       <c r="BZ2" t="inlineStr">
@@ -1053,28 +1127,28 @@
           <t>0.33</t>
         </is>
       </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
         <v>12</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>2</v>
       </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
         <v>0</v>
       </c>
       <c r="CI2" t="inlineStr">
@@ -1082,18 +1156,20 @@
           <t>0.44</t>
         </is>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>8</v>
       </c>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
@@ -1111,10 +1187,10 @@
           <t>FAKE TIRAMISU</t>
         </is>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>78</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>39</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -1127,43 +1203,43 @@
           <t>,9,</t>
         </is>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>47</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>67</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>61</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>70</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>93</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>27</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>2</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3.2</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>0.7</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="inlineStr">
@@ -1171,7 +1247,7 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1179,19 +1255,19 @@
           <t>0.8</t>
         </is>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>4</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>390</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>103</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>65</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>63</v>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1199,124 +1275,124 @@
           <t>2.4</t>
         </is>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>2</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
         <v>2</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
         <v>2</v>
       </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
         <v>6</v>
       </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
         <v>7</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>3</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>7</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
         <v>4</v>
       </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
         <v>400</v>
       </c>
       <c r="BU3" t="inlineStr">
@@ -1324,10 +1400,10 @@
           <t>2.4</t>
         </is>
       </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="inlineStr">
@@ -1340,7 +1416,7 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="inlineStr">
@@ -1348,42 +1424,44 @@
           <t>0.5</t>
         </is>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>2</v>
       </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
         <v>2</v>
       </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>48</v>
       </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
         <v>8</v>
       </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
@@ -1401,10 +1479,10 @@
           <t>FAKE TIRAMISU</t>
         </is>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>78</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>39</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -1417,43 +1495,43 @@
           <t>,9,</t>
         </is>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>47</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>67</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>61</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>70</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>93</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>27</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>3.2</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>0.7</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="inlineStr">
@@ -1461,7 +1539,7 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1469,19 +1547,19 @@
           <t>0.8</t>
         </is>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>4</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>390</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>103</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>65</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>63</v>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1489,124 +1567,124 @@
           <t>2.4</t>
         </is>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
         <v>2</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
         <v>2</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
         <v>2</v>
       </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
         <v>6</v>
       </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
         <v>7</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>3</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>7</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
         <v>4</v>
       </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
         <v>400</v>
       </c>
       <c r="BU4" t="inlineStr">
@@ -1614,10 +1692,10 @@
           <t>2.4</t>
         </is>
       </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="inlineStr">
@@ -1630,7 +1708,7 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>0</v>
       </c>
       <c r="CA4" t="inlineStr">
@@ -1638,35 +1716,37 @@
           <t>0.5</t>
         </is>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>2</v>
       </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
         <v>2</v>
       </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>48</v>
       </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
         <v>8</v>
       </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>